--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -575,7 +575,7 @@
         <v>44494</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45306</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45090.50625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44375</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44791.44280092593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44740</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44916</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44868.67020833334</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44865</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44888.6372337963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>45575</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45754</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45091.33247685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45856.81059027778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44881</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44970</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45293</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>45426.55398148148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>45358.39175925926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44377.32239583333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>45257.42827546296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>45532.45796296297</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45310</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>45243</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45376.6368287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45877</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45315.33327546297</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>45992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45777.39913194445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44889.68322916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>44244</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>44329</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>44329.58090277778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>44329.58292824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>44461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>44375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44257</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44329.57322916666</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44683.36454861111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44810</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>44445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>44529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>44356.40797453704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44327.62684027778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44258</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44419.58481481481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>44712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44479.66202546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>44479.66052083333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>44797.66454861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44889.41892361111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44421</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44244.34333333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44865</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44432</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44285.29895833333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44385.60634259259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44582.00265046296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44582.0059837963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44851.4033912037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44287.57018518518</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44538</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44286</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>44290.47280092593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44290.4797800926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44816</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44740.43847222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44837.67725694444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44712.4425462963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44290</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44874.5772337963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44532</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44357</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44377</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44722</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44685</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44288</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44350.40565972222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44586.74548611111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44809</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44357</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44442</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44244.33962962963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44244</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44858.54106481482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44452</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44491.35688657407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44288</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44281</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44670</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44659.58193287037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44329.58519675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44426</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44510.60755787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44326.62013888889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>44733.34216435185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44426.72920138889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>44557.58021990741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44817</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44614</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44258</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44874.38748842593</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44874.42180555555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44356</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44799.42243055555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>44881</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>44881</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>44588</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>44581.99863425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>44868.41391203704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>44799</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>44705</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>44377.31774305556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>44505</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>44505</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>44451.46739583334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>44798.44829861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>44560</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44477.40104166666</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44614.79133101852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44585.38177083333</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>44403</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>44714.6290625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>44369</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44369</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44438</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44877.47369212963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44491.3625</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44852.62166666667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44469</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44523.41300925926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44584.61653935185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44643.43587962963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44377</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44799</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44614</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44726.62425925926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44432.64358796296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44818.80758101852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45736.42248842592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44467</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>45646</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>45307.4084375</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>45615.5812037037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>45040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44586.3008449074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44588</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45111.57283564815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44979.49119212963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45267.89706018518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>45162</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44899</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45574.32737268518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45189</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44918</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44918</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>45184</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>45694</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>45733.47869212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45338</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45245</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>45265.41182870371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45510.41027777778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44937.6058449074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45510.42471064815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44629</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45623</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>45091.34543981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>45110.70349537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>45090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>45512</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>45544.33984953703</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>45609.30459490741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44911</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>45733.57960648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45195.64239583333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44278</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>45482.30646990741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>45390.45954861111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>45191.41320601852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>45355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>44470.30619212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>45727.47819444445</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>45727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>45629</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45161.3203125</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>45336</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>45110.68565972222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44474.57980324074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>45629.59203703704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45173.61924768519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45173.62416666667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44445.37730324074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44887</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45798.35246527778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44874</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>45435</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>44956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>45434.38707175926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>45733.4528587963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45749.41103009259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>45140</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45775.46902777778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45586</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>45803.72125</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>45721</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>45800.39847222222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>45800.40030092592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>45028.6211574074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>45722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45245.38790509259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45474</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>45623</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45804.57912037037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45271</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>45805</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>45804.66979166667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>45058.35065972222</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44904</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>45583.43951388889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>45293.40135416666</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>45310</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45443</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>45600</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>45811</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>45726.57450231481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>45624.50635416667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>45729</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45889.33225694444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>45552</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45811.43113425926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45491</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>45811.43344907407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45460</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>45810.60024305555</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>45378</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44966</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45502.4609375</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45891.62112268519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45580</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45628.31179398148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45813.59876157407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44641.36465277777</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>45812.37256944444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45891</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45635.48516203704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45891.61701388889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>45583.35133101852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>45813.58407407408</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>45681.60017361111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45891.64363425926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45742</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45197</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45891</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45891.63018518518</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45812.40777777778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>45694.38700231481</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45178</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45029.64783564815</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45590</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45616.3125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45462.30476851852</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44991.42932870371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44901.39585648148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>45246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44581</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>45897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44998</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45897</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45897.59415509259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45897</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45694.50721064815</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44980</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45429.53825231481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44867</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44426</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>45898</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45818</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>45817.77731481481</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44693.58125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>45901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44896</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>45818</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>45819.49063657408</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>45231.86333333333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>45818</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>45903</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>45903</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>45757.30491898148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>45903</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>45758.48150462963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45903.56298611111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>45456.61538194444</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>45226.39951388889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>44602.6980787037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>45903</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>45070</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45261.32729166667</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45824.64042824074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>45904</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45149</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45909</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>45558.56857638889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45910.34619212963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45021</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44790.64056712963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45730</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45758.47685185185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45918</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45061.32634259259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44942.59430555555</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45016</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>45910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44935.41436342592</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45832.4737962963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45671.64324074074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45730.33796296296</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45273.78820601852</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45832.49134259259</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45680.4343287037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45833.5234375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45142</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45142.46916666667</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45231</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45924.33851851852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45924.34481481482</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45832.4809837963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45834</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45929.58712962963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45929</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45691</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45835.51012731482</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45274.66740740741</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45243</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45119.58086805556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45929.44825231482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45728</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45929.60173611111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45729</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>45834</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>45176.38581018519</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>45839.58366898148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>45839.58796296296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>45614.86993055556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>45615.38655092593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>45197</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>45838.31085648148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>45838.31572916666</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>45839.60252314815</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>45839.48775462963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44614.7774537037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>45839.59508101852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>45041</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>45195.64928240741</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>45932</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>45936</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>45714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>45888</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>45841.43886574074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>45936.58976851852</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23874,7 +23874,7 @@
         <v>45939</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>45840.40047453704</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
         <v>45525.4109837963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>45525</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>45726</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>45135.64596064815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>45936.89217592592</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24273,7 +24273,7 @@
         <v>45939</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>45554.83660879629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>45938.406875</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>45939</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>45845.56644675926</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45173.6061574074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45845.41854166667</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24729,7 +24729,7 @@
         <v>45940.656875</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>45940.64693287037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45817.77519675926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45758.49068287037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45715</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45253.45641203703</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45418.60708333334</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45061.59405092592</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45300</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45588.55368055555</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45736.38199074074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44865.54180555556</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45848.7830787037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45946</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45946</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45636</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45621</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45778</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45856</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45856.80644675926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45856.80967592593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45748</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45950.48918981481</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45040.62565972222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45153.66541666666</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45614.50744212963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45580.37305555555</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45370.41842592593</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45631.59569444445</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>44412</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45751.40055555556</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45866</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45477</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45749</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45868.68255787037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45867.9059837963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45952</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45267.42901620371</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45957.47106481482</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45873.58828703704</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27039,7 +27039,7 @@
         <v>44872.53398148148</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27096,7 +27096,7 @@
         <v>45134.64652777778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27153,7 +27153,7 @@
         <v>45152.36185185185</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>45873</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44596.37890046297</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>45015.46771990741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44327.59894675926</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>45874.55393518518</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>45874</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>45874.48020833333</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27619,7 +27619,7 @@
         <v>45089.43049768519</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         <v>44249</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>44342</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>45959.65987268519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44998.42094907408</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>44573</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27961,7 +27961,7 @@
         <v>45252</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>44834.56980324074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>45960.50024305555</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>45877</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>45961.55121527778</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>45877</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>45243</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44998.41233796296</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>45587.34261574074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>45191.47472222222</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>45532</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44845.36622685185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45966.32049768518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>45883</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>45882</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>45882</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>45966</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>45371</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>45966.30899305556</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44956.39633101852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45691.44375</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>45756</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>45968.34553240741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45440.63092592593</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45408.33878472223</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45971</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45755.43291666666</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45638</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45971</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44911.41508101852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45971.49021990741</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>45971.56277777778</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45971</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44523.41258101852</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45140</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45477</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44518.3752662037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45582</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45397.85427083333</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45358.39800925926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45975.44054398148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45975.47203703703</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45975</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45975.46672453704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45975.46677083334</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45623</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45573.61053240741</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45614</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45611.42474537037</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45203.50714120371</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45520.63628472222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45737.43209490741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44655</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>45161.30986111111</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>45981</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>45981.36681712963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>45980.64929398148</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>45980</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44986</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>45184.50127314815</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>45184.50607638889</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>45981.68347222222</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45981.70005787037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45980.48855324074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44543</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45743.62388888889</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44865.45554398148</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45390.38291666667</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45769</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44298.45184027778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44915.6171875</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44915.61827546296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45692</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45104</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45210.63138888889</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45733.49400462963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44420.57980324074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44901</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>45733.62822916666</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44851.44445601852</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45106.45290509259</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44777.52087962963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>46029</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>46031.32127314815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>46029</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>46029</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33007,7 +33007,7 @@
         <v>46029.94606481482</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>46031.41726851852</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>46029.92722222222</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>44320</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33235,7 +33235,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>46031.40943287037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>45192</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>46031.5745949074</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>46031.58696759259</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>46029</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>44235</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45680.6977662037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
         <v>45114.46510416667</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
         <v>46021</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>45021.35409722223</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>46035.37081018519</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>45527.34743055556</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45176.42482638889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>45428</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45992</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>45140.55704861111</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>46021</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>46021</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45694.39572916667</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45992</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45991.76033564815</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>46036.37692129629</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45992</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45435.68048611111</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>44483</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45629.56130787037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>46036.37978009259</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45603</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45559.35392361111</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>44899.65194444444</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45994.40188657407</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>45498.45238425926</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44916.33868055556</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>45995.49027777778</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>45756</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>45756</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>45994.39633101852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>45995.65300925926</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>45614.50980324074</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>45281</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>45579</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>45636</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>45029</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35820,7 +35820,7 @@
         <v>45061.33076388889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         <v>45111.62513888889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>45204.29884259259</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>44979</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36048,7 +36048,7 @@
         <v>45397.84950231481</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>45999</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>46041.39481481481</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>45996</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>46000</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>44977.42313657407</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>45250</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>45764.8356712963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>46042.71905092592</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36561,7 +36561,7 @@
         <v>45407</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>44482</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>44970.61927083333</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36732,7 +36732,7 @@
         <v>44740</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36789,7 +36789,7 @@
         <v>46041</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>46002.3396412037</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36903,7 +36903,7 @@
         <v>45621</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>45432</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37017,7 +37017,7 @@
         <v>46003</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         <v>45642.47990740741</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37131,7 +37131,7 @@
         <v>46002</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37188,7 +37188,7 @@
         <v>44442.34702546296</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37245,7 +37245,7 @@
         <v>45188</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>45583.49190972222</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37359,7 +37359,7 @@
         <v>45704</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37416,7 +37416,7 @@
         <v>46043.92819444444</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37473,7 +37473,7 @@
         <v>45659.43743055555</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37530,7 +37530,7 @@
         <v>45723.60413194444</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37587,7 +37587,7 @@
         <v>46002</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37644,7 +37644,7 @@
         <v>45520</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         <v>45510</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37758,7 +37758,7 @@
         <v>46006.80295138889</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37815,7 +37815,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37872,7 +37872,7 @@
         <v>46006.79896990741</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37929,7 +37929,7 @@
         <v>45071</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         <v>44839</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>45301.40287037037</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38105,7 +38105,7 @@
         <v>46007</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38162,7 +38162,7 @@
         <v>45412</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38219,7 +38219,7 @@
         <v>45646</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38276,7 +38276,7 @@
         <v>44799</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38333,7 +38333,7 @@
         <v>46050.3006712963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38390,7 +38390,7 @@
         <v>44455.42010416667</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38447,7 +38447,7 @@
         <v>46048</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>45764.86341435185</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38561,7 +38561,7 @@
         <v>46050.29395833334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38618,7 +38618,7 @@
         <v>46050.29765046296</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>46009.65501157408</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>46050</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>46007.91733796296</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>44625</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>46008.35336805556</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45443.61469907407</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45443.62809027778</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45475.3100462963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44470</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45307</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>46010</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>46013.46969907408</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>44476.40172453703</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39421,7 +39421,7 @@
         <v>45154.36349537037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39478,7 +39478,7 @@
         <v>46052.97109953704</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>45223.36175925926</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>44858.51219907407</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39654,7 +39654,7 @@
         <v>44970</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39711,7 +39711,7 @@
         <v>46013.44871527778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39768,7 +39768,7 @@
         <v>46013.45496527778</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39825,7 +39825,7 @@
         <v>45603</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39882,7 +39882,7 @@
         <v>45310.66641203704</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         <v>45281</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39996,7 +39996,7 @@
         <v>45090</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>46010.3569212963</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40110,7 +40110,7 @@
         <v>45090</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40167,7 +40167,7 @@
         <v>45533.35328703704</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40224,7 +40224,7 @@
         <v>45392.60068287037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>45775</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>45310</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40395,7 +40395,7 @@
         <v>44746</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40452,7 +40452,7 @@
         <v>44951</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40509,7 +40509,7 @@
         <v>46059.47119212963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>46016</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44798.44091435185</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>46016</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>46016</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>45992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40851,7 +40851,7 @@
         <v>45210.61785879629</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40908,7 +40908,7 @@
         <v>44896</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40965,7 +40965,7 @@
         <v>45603</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41022,7 +41022,7 @@
         <v>46016</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41079,7 +41079,7 @@
         <v>46016</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>46059.47886574074</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41193,7 +41193,7 @@
         <v>46016</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41250,7 +41250,7 @@
         <v>45415.49917824074</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41307,7 +41307,7 @@
         <v>45737.40064814815</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41364,7 +41364,7 @@
         <v>45737.40975694444</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41421,7 +41421,7 @@
         <v>45308.43929398148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41478,7 +41478,7 @@
         <v>45139</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41535,7 +41535,7 @@
         <v>45467.43847222222</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41592,7 +41592,7 @@
         <v>45105.61513888889</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41649,7 +41649,7 @@
         <v>45091</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41706,7 +41706,7 @@
         <v>45091</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41763,7 +41763,7 @@
         <v>45751.54429398148</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41820,7 +41820,7 @@
         <v>45278</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41877,7 +41877,7 @@
         <v>44894.35633101852</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>45245.39134259259</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>45156.34178240741</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>45166.37347222222</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>45173.42797453704</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>45749</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>44557</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45579</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44575.42931712963</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45600</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45092.52130787037</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45541.49884259259</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45296</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45426</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45197.32480324074</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45224</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45532.46422453703</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>44537.31429398148</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45037.53892361111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45719</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>44901.45045138889</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45301.28457175926</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45617</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>44537.35434027778</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45723.5812037037</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45054</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45549.29730324074</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>45084.36466435185</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>44375</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>44546.63256944445</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>44840.68204861111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45685.35579861111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45672</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44966</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>45090.5115162037</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>45090.52355324074</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>45090.52524305556</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44110,7 +44110,7 @@
         <v>45553.39327546296</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>45736.4399537037</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44224,7 +44224,7 @@
         <v>45106</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>44804.37699074074</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44338,7 +44338,7 @@
         <v>45450</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44395,7 +44395,7 @@
         <v>45290.40490740741</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45290.4230787037</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>45146.39759259259</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45769</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45176.47168981482</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45539</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>45754</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>45258.68179398148</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>45714</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>45654</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>45152</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>45152</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45084,7 +45084,7 @@
         <v>44445</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45261.66388888889</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>45775.46146990741</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45098.60960648148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45442.31208333333</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45272.84534722222</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>44683</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45084</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45526.34626157407</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45597,7 +45597,7 @@
         <v>45204.34394675926</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45654,7 +45654,7 @@
         <v>44427</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45711,7 +45711,7 @@
         <v>45279</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45768,7 +45768,7 @@
         <v>45525</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>45224</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45887,7 +45887,7 @@
         <v>45653</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45944,7 +45944,7 @@
         <v>45267.8165162037</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46001,7 +46001,7 @@
         <v>45599</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46058,7 +46058,7 @@
         <v>45015.51855324074</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46115,7 +46115,7 @@
         <v>45370.40393518518</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46172,7 +46172,7 @@
         <v>44966</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46229,7 +46229,7 @@
         <v>45092.49870370371</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46286,7 +46286,7 @@
         <v>44883</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46343,7 +46343,7 @@
         <v>45671.63766203704</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46400,7 +46400,7 @@
         <v>45608.30012731482</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46457,7 +46457,7 @@
         <v>45684.53989583333</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46514,7 +46514,7 @@
         <v>45281.63020833334</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46571,7 +46571,7 @@
         <v>45603</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>45275</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46685,7 +46685,7 @@
         <v>45244</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46742,7 +46742,7 @@
         <v>45128</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46799,7 +46799,7 @@
         <v>45756</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46856,7 +46856,7 @@
         <v>45281</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46913,7 +46913,7 @@
         <v>44602.57221064815</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46970,7 +46970,7 @@
         <v>45161.34262731481</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47027,7 +47027,7 @@
         <v>45745.33353009259</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47084,7 +47084,7 @@
         <v>45204</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47141,7 +47141,7 @@
         <v>45245.36474537037</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47198,7 +47198,7 @@
         <v>45245.36806712963</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47260,7 +47260,7 @@
         <v>45770</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47322,7 +47322,7 @@
         <v>45730.37660879629</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47379,7 +47379,7 @@
         <v>45149</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>45159</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>45089.42549768519</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>45426.54575231481</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>45310</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>45310</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>45090</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>44700</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47845,7 +47845,7 @@
         <v>45432.4952662037</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47902,7 +47902,7 @@
         <v>45054.67517361111</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47959,7 +47959,7 @@
         <v>45336</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48016,7 +48016,7 @@
         <v>45546</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48073,7 +48073,7 @@
         <v>45455</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48130,7 +48130,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         <v>45093.36811342592</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48244,7 +48244,7 @@
         <v>45764.83717592592</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48301,7 +48301,7 @@
         <v>45294.43738425926</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48358,7 +48358,7 @@
         <v>45253.55711805556</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48415,7 +48415,7 @@
         <v>45541.43833333333</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48472,7 +48472,7 @@
         <v>45092.46762731481</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48529,7 +48529,7 @@
         <v>45681.60923611111</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48591,7 +48591,7 @@
         <v>45692</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48648,7 +48648,7 @@
         <v>45674</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48705,7 +48705,7 @@
         <v>44966</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44998</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44896.31075231481</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>45306</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>45676</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48990,7 +48990,7 @@
         <v>45221.77943287037</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>45221.79</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49114,7 +49114,7 @@
         <v>45229</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49171,7 +49171,7 @@
         <v>44659</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49228,7 +49228,7 @@
         <v>45175.32085648148</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49285,7 +49285,7 @@
         <v>45736.45195601852</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49342,7 +49342,7 @@
         <v>45616.31659722222</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49399,7 +49399,7 @@
         <v>44776</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49461,7 +49461,7 @@
         <v>44714.6340625</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49518,7 +49518,7 @@
         <v>44636</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49575,7 +49575,7 @@
         <v>44636</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>45639.32872685185</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>44911</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>45015.42163194445</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>45616</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>45680</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49917,7 +49917,7 @@
         <v>44665.50206018519</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49974,7 +49974,7 @@
         <v>45749</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50036,7 +50036,7 @@
         <v>45775.79428240741</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50093,7 +50093,7 @@
         <v>45777.58931712963</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50150,7 +50150,7 @@
         <v>45775.76653935185</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50207,7 +50207,7 @@
         <v>45778.8775</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50264,7 +50264,7 @@
         <v>45778.88215277778</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50321,7 +50321,7 @@
         <v>45783.55393518518</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50378,7 +50378,7 @@
         <v>44426</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50435,7 +50435,7 @@
         <v>45567.68861111111</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50492,7 +50492,7 @@
         <v>45730.428125</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50549,7 +50549,7 @@
         <v>45790.69576388889</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50606,7 +50606,7 @@
         <v>45790.66159722222</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>45629</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50725,7 +50725,7 @@
         <v>45792.46037037037</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50782,7 +50782,7 @@
         <v>45576</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>45796.50158564815</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -575,7 +575,7 @@
         <v>44494</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45306</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45090.50625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44375</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44791.44280092593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44740</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44916</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44868.67020833334</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44865</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44888.6372337963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>45575</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45754</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45091.33247685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45856.81059027778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44881</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44970</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45293</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>45426.55398148148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>45358.39175925926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44377.32239583333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>45257.42827546296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>45532.45796296297</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45310</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>45243</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45376.6368287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45877</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45315.33327546297</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>45992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45777.39913194445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44889.68322916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>44244</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>44329</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>44329.58090277778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>44329.58292824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>44461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>44375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44257</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44329.57322916666</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44683.36454861111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44810</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>44445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>44529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>44356.40797453704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44327.62684027778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44258</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44419.58481481481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>44712</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44479.66202546296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>44479.66052083333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>44797.66454861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44889.41892361111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44421</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44244.34333333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44865</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44432</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44285.29895833333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44385.60634259259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44582.00265046296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44582.0059837963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44851.4033912037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44287.57018518518</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44538</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44286</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>44290.47280092593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44290.4797800926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44816</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44740.43847222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44837.67725694444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44712.4425462963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44290</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44874.5772337963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44532</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44357</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44377</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44722</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44685</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44288</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44350.40565972222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44586.74548611111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44809</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44357</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44442</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44244.33962962963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44244</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44858.54106481482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44452</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44491.35688657407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44288</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44281</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44670</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44659.58193287037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44329.58519675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44426</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44510.60755787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44326.62013888889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>44733.34216435185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44853</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44426.72920138889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>44557.58021990741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44817</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44614</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44258</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44874.38748842593</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44874.42180555555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44356</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44799.42243055555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>44881</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>44881</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>44588</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>44581.99863425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>44868.41391203704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>44799</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>44705</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>44377.31774305556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>44505</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>44505</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>44451.46739583334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>44798.44829861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>44560</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>44573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44477.40104166666</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>44614.79133101852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44585.38177083333</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>44403</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>44714.6290625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>44369</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44369</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44438</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44877.47369212963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44491.3625</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44852.62166666667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44469</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44523.41300925926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44584.61653935185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44643.43587962963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44377</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44799</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44614</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44726.62425925926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44432.64358796296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44818.80758101852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45736.42248842592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44467</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>45646</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>45307.4084375</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>45615.5812037037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>45040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44586.3008449074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44588</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45111.57283564815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44979.49119212963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45267.89706018518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>45162</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44899</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45574.32737268518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45189</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44918</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44918</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>45184</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>45694</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>45733.47869212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45338</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45245</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>45265.41182870371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45510.41027777778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44937.6058449074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45510.42471064815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44629</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45623</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>45091.34543981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>45110.70349537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>45090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>45512</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>45544.33984953703</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>45609.30459490741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44911</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>45733.57960648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45195.64239583333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44278</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>45482.30646990741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>45390.45954861111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>45191.41320601852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>45355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>44470.30619212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>45727.47819444445</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>45727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>45629</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45161.3203125</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>45336</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>45110.68565972222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44474.57980324074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>45629.59203703704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45173.61924768519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45173.62416666667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44445.37730324074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44887</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45798.35246527778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44874</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>45435</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>44956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>45434.38707175926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>45733.4528587963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45749.41103009259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>45140</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45775.46902777778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45586</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>45803.72125</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>45721</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>45800.39847222222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>45800.40030092592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>45028.6211574074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>45722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45245.38790509259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45474</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>45623</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>45804.57912037037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45271</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>45805</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>45804.66979166667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>45058.35065972222</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>44904</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>45583.43951388889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>45293.40135416666</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>45310</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45443</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>45600</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>45811</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>45726.57450231481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>45624.50635416667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>45729</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45889.33225694444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>45552</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45811.43113425926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45491</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>45811.43344907407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45460</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>45810.60024305555</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>45378</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44966</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45502.4609375</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45891.62112268519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45580</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45628.31179398148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45813.59876157407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44641.36465277777</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>45812.37256944444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45891</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45635.48516203704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45891.61701388889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>45583.35133101852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>45813.58407407408</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>45681.60017361111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45891.64363425926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45742</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45197</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45891</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45891.63018518518</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45812.40777777778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>45694.38700231481</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45178</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45029.64783564815</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>45590</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45616.3125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>45462.30476851852</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44991.42932870371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44901.39585648148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>45246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44581</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>45897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44998</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45897</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45897.59415509259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45897</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45694.50721064815</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44980</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45429.53825231481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44867</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44426</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>45898</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45818</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>45817.77731481481</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44693.58125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>45901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44896</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>45818</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>45819.49063657408</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>45231.86333333333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>45818</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>45903</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>45903</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>45757.30491898148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>45903</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>45758.48150462963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45903.56298611111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>45456.61538194444</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>45226.39951388889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>44602.6980787037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>45903</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>45070</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45261.32729166667</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45824.64042824074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>45904</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45149</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45909</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>45558.56857638889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45910.34619212963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45021</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44790.64056712963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45730</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45758.47685185185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45918</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45061.32634259259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44942.59430555555</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45016</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>45910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44935.41436342592</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45832.4737962963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45671.64324074074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45730.33796296296</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45273.78820601852</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45832.49134259259</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45680.4343287037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45833.5234375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45142</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45142.46916666667</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45231</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45924.33851851852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45924.34481481482</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45832.4809837963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45924</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45834</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45929.58712962963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45929</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45691</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45835.51012731482</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45274.66740740741</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45243</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45119.58086805556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45929.44825231482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45728</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45929.60173611111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45729</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>45834</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>45176.38581018519</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>45839.58366898148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>45839.58796296296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>45614.86993055556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>45615.38655092593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>45197</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>45838.31085648148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>45838.31572916666</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>45839.60252314815</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>45839.48775462963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44614.7774537037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>45839.59508101852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>45041</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>45195.64928240741</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>45932</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>45936</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>45714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>45888</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>45841.43886574074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>45936.58976851852</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23874,7 +23874,7 @@
         <v>45939</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>45840.40047453704</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
         <v>45525.4109837963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>45525</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>45726</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>45135.64596064815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>45936.89217592592</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24273,7 +24273,7 @@
         <v>45939</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>45554.83660879629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>45938.406875</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>45939</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>45845.56644675926</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45173.6061574074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45845.41854166667</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24729,7 +24729,7 @@
         <v>45940.656875</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>45940.64693287037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45817.77519675926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45758.49068287037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45715</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45253.45641203703</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45418.60708333334</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45061.59405092592</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45300</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45588.55368055555</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45736.38199074074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44865.54180555556</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45848.7830787037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45946</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45946</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45636</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45621</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45778</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45856</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45856.80644675926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45856.80967592593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45748</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45950.48918981481</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45040.62565972222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45153.66541666666</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45614.50744212963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45580.37305555555</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45370.41842592593</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45631.59569444445</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>44412</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45751.40055555556</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45866</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45477</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45749</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45868.68255787037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45867.9059837963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45952</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45267.42901620371</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45957.47106481482</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45873.58828703704</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27039,7 +27039,7 @@
         <v>44872.53398148148</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27096,7 +27096,7 @@
         <v>45134.64652777778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27153,7 +27153,7 @@
         <v>45152.36185185185</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>45873</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>44596.37890046297</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>45015.46771990741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44327.59894675926</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>45874.55393518518</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>45874</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>45874.48020833333</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27619,7 +27619,7 @@
         <v>45089.43049768519</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         <v>44249</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>44342</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>45959.65987268519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44998.42094907408</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>44573</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27961,7 +27961,7 @@
         <v>45252</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>44834.56980324074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>45960.50024305555</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>45877</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>45961.55121527778</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>45877</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>45243</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44998.41233796296</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>45587.34261574074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>45191.47472222222</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>45532</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44845.36622685185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45966.32049768518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>45883</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>45882</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>45882</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>45966</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28935,7 +28935,7 @@
         <v>45371</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>45966.30899305556</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44917</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>44956.39633101852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45691.44375</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>45756</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>45968.34553240741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45440.63092592593</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45408.33878472223</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45971</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45755.43291666666</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45638</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45971</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44911.41508101852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45971.49021990741</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>45971.56277777778</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45971</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44523.41258101852</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45140</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45477</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44518.3752662037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45582</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45397.85427083333</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45358.39800925926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45975.44054398148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45975.47203703703</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45975</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45975.46672453704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45975.46677083334</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45623</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45573.61053240741</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45614</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45611.42474537037</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45203.50714120371</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45520.63628472222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45737.43209490741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44655</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>45161.30986111111</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>45981</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>45981.36681712963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>45980.64929398148</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>45980</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44986</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>45184.50127314815</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>45184.50607638889</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>45981.68347222222</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45981.70005787037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45980.48855324074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44543</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45743.62388888889</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44382</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44865.45554398148</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45390.38291666667</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45769</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44298.45184027778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44915.6171875</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44915.61827546296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45692</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45104</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45210.63138888889</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45733.49400462963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44420.57980324074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44901</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>45733.62822916666</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44851.44445601852</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45106.45290509259</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44777.52087962963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>46029</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>46031.32127314815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>46029</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>46029</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33007,7 +33007,7 @@
         <v>46029.94606481482</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>46031.41726851852</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>46029.92722222222</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>44320</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33235,7 +33235,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>46031.40943287037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>45192</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>46031.5745949074</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>46031.58696759259</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>46029</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>44235</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45680.6977662037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
         <v>45114.46510416667</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
         <v>46021</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>45021.35409722223</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>46035.37081018519</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>45527.34743055556</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45176.42482638889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>45428</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45992</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>45140.55704861111</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>46021</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>46021</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45694.39572916667</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45992</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45991.76033564815</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>46036.37692129629</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45992</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45435.68048611111</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>44483</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45629.56130787037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>46036.37978009259</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45603</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45559.35392361111</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>44899.65194444444</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45994.40188657407</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>45498.45238425926</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44916.33868055556</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>45995.49027777778</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>45756</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>45756</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>45994.39633101852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>45995.65300925926</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>45614.50980324074</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>45281</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>45579</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>45636</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>45029</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35820,7 +35820,7 @@
         <v>45061.33076388889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         <v>45111.62513888889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>45204.29884259259</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>44979</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36048,7 +36048,7 @@
         <v>45397.84950231481</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>45999</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>46041.39481481481</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>45996</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>46000</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>44977.42313657407</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>45250</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>45764.8356712963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>46042.71905092592</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36561,7 +36561,7 @@
         <v>45407</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>44482</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>44970.61927083333</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36732,7 +36732,7 @@
         <v>44740</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36789,7 +36789,7 @@
         <v>46041</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>46002.3396412037</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36903,7 +36903,7 @@
         <v>45621</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>45432</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37017,7 +37017,7 @@
         <v>46003</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         <v>45642.47990740741</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37131,7 +37131,7 @@
         <v>46002</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37188,7 +37188,7 @@
         <v>44442.34702546296</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37245,7 +37245,7 @@
         <v>45188</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>45583.49190972222</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37359,7 +37359,7 @@
         <v>45704</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37416,7 +37416,7 @@
         <v>46043.92819444444</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37473,7 +37473,7 @@
         <v>45659.43743055555</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37530,7 +37530,7 @@
         <v>45723.60413194444</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37587,7 +37587,7 @@
         <v>46002</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37644,7 +37644,7 @@
         <v>45520</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         <v>45510</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37758,7 +37758,7 @@
         <v>46006.80295138889</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37815,7 +37815,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37872,7 +37872,7 @@
         <v>46006.79896990741</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37929,7 +37929,7 @@
         <v>45071</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         <v>44839</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>45301.40287037037</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38105,7 +38105,7 @@
         <v>46007</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38162,7 +38162,7 @@
         <v>45412</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38219,7 +38219,7 @@
         <v>45646</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38276,7 +38276,7 @@
         <v>44799</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38333,7 +38333,7 @@
         <v>46050.3006712963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38390,7 +38390,7 @@
         <v>44455.42010416667</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38447,7 +38447,7 @@
         <v>46048</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>45764.86341435185</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38561,7 +38561,7 @@
         <v>46050.29395833334</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38618,7 +38618,7 @@
         <v>46050.29765046296</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>46009.65501157408</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>46050</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>46007.91733796296</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>44625</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>46008.35336805556</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45443.61469907407</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45443.62809027778</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45475.3100462963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>44470</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45307</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>46010</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>46013.46969907408</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>44476.40172453703</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39421,7 +39421,7 @@
         <v>45154.36349537037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39478,7 +39478,7 @@
         <v>46052.97109953704</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>45223.36175925926</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>44858.51219907407</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39654,7 +39654,7 @@
         <v>44970</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39711,7 +39711,7 @@
         <v>46013.44871527778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39768,7 +39768,7 @@
         <v>46013.45496527778</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39825,7 +39825,7 @@
         <v>45603</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39882,7 +39882,7 @@
         <v>45310.66641203704</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         <v>45281</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39996,7 +39996,7 @@
         <v>45090</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>46010.3569212963</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40110,7 +40110,7 @@
         <v>45090</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40167,7 +40167,7 @@
         <v>45533.35328703704</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40224,7 +40224,7 @@
         <v>45392.60068287037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>45775</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>45310</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40395,7 +40395,7 @@
         <v>44746</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40452,7 +40452,7 @@
         <v>44951</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40509,7 +40509,7 @@
         <v>46059.47119212963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>46016</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44798.44091435185</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>46016</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>46016</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>45992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40851,7 +40851,7 @@
         <v>45210.61785879629</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40908,7 +40908,7 @@
         <v>44896</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40965,7 +40965,7 @@
         <v>45603</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41022,7 +41022,7 @@
         <v>46016</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41079,7 +41079,7 @@
         <v>46016</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>46059.47886574074</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41193,7 +41193,7 @@
         <v>46016</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41250,7 +41250,7 @@
         <v>45415.49917824074</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41307,7 +41307,7 @@
         <v>45737.40064814815</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41364,7 +41364,7 @@
         <v>45737.40975694444</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41421,7 +41421,7 @@
         <v>45308.43929398148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41478,7 +41478,7 @@
         <v>45139</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41535,7 +41535,7 @@
         <v>45467.43847222222</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41592,7 +41592,7 @@
         <v>45105.61513888889</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41649,7 +41649,7 @@
         <v>45091</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41706,7 +41706,7 @@
         <v>45091</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41763,7 +41763,7 @@
         <v>45751.54429398148</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41820,7 +41820,7 @@
         <v>45278</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41877,7 +41877,7 @@
         <v>44894.35633101852</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41934,7 +41934,7 @@
         <v>45245.39134259259</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>45156.34178240741</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>45166.37347222222</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>45173.42797453704</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>45749</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>44557</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45085</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45579</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44575.42931712963</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>44908</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45600</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45092.52130787037</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45541.49884259259</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45296</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45426</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45197.32480324074</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45224</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45532.46422453703</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>44537.31429398148</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45037.53892361111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45719</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>44901.45045138889</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45301.28457175926</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45617</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>44537.35434027778</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45723.5812037037</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45054</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45549.29730324074</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>45084.36466435185</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>44375</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>44546.63256944445</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>44840.68204861111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45685.35579861111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45672</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44966</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>45090.5115162037</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>45090.52355324074</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>45090.52524305556</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44110,7 +44110,7 @@
         <v>45553.39327546296</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>45736.4399537037</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44224,7 +44224,7 @@
         <v>45106</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>44804.37699074074</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44338,7 +44338,7 @@
         <v>45450</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44395,7 +44395,7 @@
         <v>45290.40490740741</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45290.4230787037</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>45146.39759259259</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45769</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45176.47168981482</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45539</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>45754</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>45258.68179398148</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>45714</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>45654</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>45152</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>45152</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45084,7 +45084,7 @@
         <v>44445</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45261.66388888889</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>45775.46146990741</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45098.60960648148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45442.31208333333</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45272.84534722222</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>44683</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45084</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45526.34626157407</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45597,7 +45597,7 @@
         <v>45204.34394675926</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45654,7 +45654,7 @@
         <v>44427</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45711,7 +45711,7 @@
         <v>45279</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45768,7 +45768,7 @@
         <v>45525</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>45224</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45887,7 +45887,7 @@
         <v>45653</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45944,7 +45944,7 @@
         <v>45267.8165162037</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46001,7 +46001,7 @@
         <v>45599</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46058,7 +46058,7 @@
         <v>45015.51855324074</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46115,7 +46115,7 @@
         <v>45370.40393518518</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46172,7 +46172,7 @@
         <v>44966</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46229,7 +46229,7 @@
         <v>45092.49870370371</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46286,7 +46286,7 @@
         <v>44883</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46343,7 +46343,7 @@
         <v>45671.63766203704</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46400,7 +46400,7 @@
         <v>45608.30012731482</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46457,7 +46457,7 @@
         <v>45684.53989583333</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46514,7 +46514,7 @@
         <v>45281.63020833334</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46571,7 +46571,7 @@
         <v>45603</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>45275</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46685,7 +46685,7 @@
         <v>45244</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46742,7 +46742,7 @@
         <v>45128</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46799,7 +46799,7 @@
         <v>45756</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46856,7 +46856,7 @@
         <v>45281</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46913,7 +46913,7 @@
         <v>44602.57221064815</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46970,7 +46970,7 @@
         <v>45161.34262731481</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47027,7 +47027,7 @@
         <v>45745.33353009259</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47084,7 +47084,7 @@
         <v>45204</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47141,7 +47141,7 @@
         <v>45245.36474537037</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47198,7 +47198,7 @@
         <v>45245.36806712963</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47260,7 +47260,7 @@
         <v>45770</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47322,7 +47322,7 @@
         <v>45730.37660879629</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47379,7 +47379,7 @@
         <v>45149</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47441,7 +47441,7 @@
         <v>45159</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47498,7 +47498,7 @@
         <v>45089.42549768519</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>45426.54575231481</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>45310</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>45310</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>45090</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>44700</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47845,7 +47845,7 @@
         <v>45432.4952662037</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47902,7 +47902,7 @@
         <v>45054.67517361111</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47959,7 +47959,7 @@
         <v>45336</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48016,7 +48016,7 @@
         <v>45546</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48073,7 +48073,7 @@
         <v>45455</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48130,7 +48130,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         <v>45093.36811342592</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48244,7 +48244,7 @@
         <v>45764.83717592592</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48301,7 +48301,7 @@
         <v>45294.43738425926</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48358,7 +48358,7 @@
         <v>45253.55711805556</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48415,7 +48415,7 @@
         <v>45541.43833333333</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48472,7 +48472,7 @@
         <v>45092.46762731481</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48529,7 +48529,7 @@
         <v>45681.60923611111</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48591,7 +48591,7 @@
         <v>45692</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48648,7 +48648,7 @@
         <v>45674</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48705,7 +48705,7 @@
         <v>44966</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>44998</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48819,7 +48819,7 @@
         <v>44896.31075231481</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>45306</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>45676</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48990,7 +48990,7 @@
         <v>45221.77943287037</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>45221.79</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49114,7 +49114,7 @@
         <v>45229</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49171,7 +49171,7 @@
         <v>44659</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49228,7 +49228,7 @@
         <v>45175.32085648148</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49285,7 +49285,7 @@
         <v>45736.45195601852</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49342,7 +49342,7 @@
         <v>45616.31659722222</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49399,7 +49399,7 @@
         <v>44776</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49461,7 +49461,7 @@
         <v>44714.6340625</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49518,7 +49518,7 @@
         <v>44636</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49575,7 +49575,7 @@
         <v>44636</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49632,7 +49632,7 @@
         <v>45639.32872685185</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>44911</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>45015.42163194445</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>45616</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>45680</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49917,7 +49917,7 @@
         <v>44665.50206018519</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49974,7 +49974,7 @@
         <v>45749</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50036,7 +50036,7 @@
         <v>45775.79428240741</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50093,7 +50093,7 @@
         <v>45777.58931712963</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50150,7 +50150,7 @@
         <v>45775.76653935185</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50207,7 +50207,7 @@
         <v>45778.8775</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50264,7 +50264,7 @@
         <v>45778.88215277778</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50321,7 +50321,7 @@
         <v>45783.55393518518</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50378,7 +50378,7 @@
         <v>44426</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50435,7 +50435,7 @@
         <v>45567.68861111111</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50492,7 +50492,7 @@
         <v>45730.428125</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50549,7 +50549,7 @@
         <v>45790.69576388889</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50606,7 +50606,7 @@
         <v>45790.66159722222</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>45629</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50725,7 +50725,7 @@
         <v>45792.46037037037</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50782,7 +50782,7 @@
         <v>45576</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>45796.50158564815</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -575,7 +575,7 @@
         <v>44494</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45306</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45090.50625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44375</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44791.44280092593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44740</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44916</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44868.67020833334</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44865</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44888.6372337963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>45856.81059027778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45091.33247685185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>45754</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44881</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44970</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>45293</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>45426.55398148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45358.39175925926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>45575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44377.32239583333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>45257.42827546296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>45532.45796296297</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45310</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>45243</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45877</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45376.6368287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45315.33327546297</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>45992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45777.39913194445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44889.68322916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>44329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>44329.58090277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>44329.58292824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>44461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>44375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>44257</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44329.57322916666</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44683.36454861111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44445</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>44356.40797453704</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>44529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>44327.62684027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>44383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44258</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44419.58481481481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44712</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>44479.66202546296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>44479.66052083333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44797.66454861111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>44889.41892361111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44421</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44608</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44432</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44285.29895833333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44385.60634259259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44582.00265046296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44582.0059837963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44851.4033912037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44286</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44287.57018518518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44538</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44290.47280092593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44290.4797800926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>44816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44740.43847222222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44837.67725694444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44712.4425462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44290</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44874.5772337963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44357</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44586.74548611111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44722</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44288</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44685</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44350.40565972222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44809</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44357</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44442</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44452</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44491.35688657407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44288</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44858.54106481482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44281</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44494</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44659.58193287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44329.58519675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44740</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44426</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>44510.60755787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44326.62013888889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44733.34216435185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44853</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44557.58021990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44426.72920138889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44546</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44614</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44817</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44258</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44874.38748842593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44874.42180555555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44883</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44515</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>44356</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>44799.42243055555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44581.99863425926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44881</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44881</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>44868.41391203704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>44799</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>44705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>44377.31774305556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>44505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>44505</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>44451.46739583334</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>44798.44829861111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>44560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44573</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44477.40104166666</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44614.79133101852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44585.38177083333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>44403</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>44714.6290625</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>44369</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>44369</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>44438</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>44877.47369212963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>44491.3625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44852.62166666667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44469</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44523.41300925926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44662</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44584.61653935185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44643.43587962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44799</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44614</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44726.62425925926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44432.64358796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44818.80758101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45736.42248842592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>45307.4084375</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>45646</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44586.3008449074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45615.5812037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44979.49119212963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44881</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45267.89706018518</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>45162</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>45054</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>45054</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44899</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>45574.32737268518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>45040</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44588</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>45189</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45111.57283564815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44918</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44918</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45184</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>45694</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>45733.47869212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>45245</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>45510.41027777778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>45265.41182870371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>45338</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>44937.6058449074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45510.42471064815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45623</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45091.34543981482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45110.70349537037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45733.57960648148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>45512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>45544.33984953703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>45609.30459490741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44911</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>45191.41320601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>45195.64239583333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44278</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>45482.30646990741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45390.45954861111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>45727.47819444445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>45727</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44470.30619212963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>45355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>45629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>45336</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>45110.68565972222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>45161.3203125</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44474.57980324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45629.59203703704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>44874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>45173.61924768519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>45173.62416666667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>45435</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44445.37730324074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45434.38707175926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45749.41103009259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45733.4528587963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>44887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>45586</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>45140</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>45775.46902777778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45271</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>45028.6211574074</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45623</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45722</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>45058.35065972222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>45245.38790509259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44904</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>45729</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45293.40135416666</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45460</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45588</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45443</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44641.36465277777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>45681.60017361111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45635.48516203704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45197</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>45694.38700231481</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>45029.64783564815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>45616.3125</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>45462.30476851852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44991.42932870371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44901.39585648148</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>45818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>45818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>45817.77731481481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>45246</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>45818</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>45819.49063657408</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45818</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45694.50721064815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44980</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45429.53825231481</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>44426</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44693.58125</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>45583.43951388889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>45758.48150462963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44896</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>45231.86333333333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45824.64042824074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45757.30491898148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45889.33225694444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45456.61538194444</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45891.62112268519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45226.39951388889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44602.6980787037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>45891</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>45070</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>45261.32729166667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>45891.61701388889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45891.64363425926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>45891</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>45891.63018518518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>45178</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>45149</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>45558.56857638889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>45832.4737962963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>45897</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>45897</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>45897.59415509259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>45832.49134259259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>44790.64056712963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>45833.5234375</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45898</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45832.4809837963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>44943</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>45834</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>45835.51012731482</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>45730</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>45758.47685185185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>45903</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>45903</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>45903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>45834</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>45903.56298611111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>45839.58366898148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>45839.58796296296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>45061.32634259259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44942.59430555555</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>45016</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>45838.31085648148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45838.31572916666</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45839.60252314815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>44935.41436342592</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>45903</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>45839.48775462963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>45839.59508101852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>45671.64324074074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>45904</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>45730.33796296296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>45273.78820601852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>45841.43886574074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45909</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45680.4343287037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45840.40047453704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45142</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>45142.46916666667</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>45231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>45845.56644675926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>45845.41854166667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>45910.34619212963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>45915</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>45691</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>45274.66740740741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45817.77519675926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>45758.49068287037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45243</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45119.58086805556</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20865,7 +20865,7 @@
         <v>45715</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20922,7 +20922,7 @@
         <v>45253.45641203703</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         <v>45061.59405092592</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>45728</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>45729</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21150,7 +21150,7 @@
         <v>45588.55368055555</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>45736.38199074074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45848.7830787037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>45176.38581018519</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>45614.86993055556</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>45615.38655092593</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>45918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>45197</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44614.7774537037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>45778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>45910</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>45041</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>45856</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>45856.80644675926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>45195.64928240741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>45856.80967592593</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44966</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45920</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45614.50744212963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45631.59569444445</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45525.4109837963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45866</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45924.33851851852</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22637,7 +22637,7 @@
         <v>45924.34481481482</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22694,7 +22694,7 @@
         <v>45924</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>45135.64596064815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>45868.68255787037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45867.9059837963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45554.83660879629</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45929.58712962963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45929</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45173.6061574074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45140</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45929.44825231482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45873.58828703704</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45929.60173611111</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45873</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45874.55393518518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45874.48020833333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>45418.60708333334</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>45877</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45877</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>45300</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>44865.54180555556</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45636</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45932</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24015,7 +24015,7 @@
         <v>45936</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>45621</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>45888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>45936.58976851852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>45883</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24310,7 +24310,7 @@
         <v>45882</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24367,7 +24367,7 @@
         <v>45882</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24424,7 +24424,7 @@
         <v>45756</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>45748</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>45939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>45040.62565972222</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>45153.66541666666</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>45582</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>45580.37305555555</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>45370.41842592593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>45936.89217592592</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>45939</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
         <v>45938.406875</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>45939</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25113,7 +25113,7 @@
         <v>44412</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25170,7 +25170,7 @@
         <v>45751.40055555556</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
         <v>45477</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25284,7 +25284,7 @@
         <v>45749</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>45940.656875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>45267.42901620371</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>45940.64693287037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>44872.53398148148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45134.64652777778</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45152.36185185185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>44596.37890046297</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25755,7 +25755,7 @@
         <v>45015.46771990741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>44327.59894675926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>45089.43049768519</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>44249</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45946</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>45946</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44342</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26159,7 +26159,7 @@
         <v>44998.42094907408</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>44573</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>45252</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26330,7 +26330,7 @@
         <v>44834.56980324074</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>45950.48918981481</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45243</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44998.41233796296</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45587.34261574074</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45191.47472222222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45532</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>44845.36622685185</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>45952</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>45371</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>44956.39633101852</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45957.47106481482</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45691.44375</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45440.63092592593</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45408.33878472223</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45755.43291666666</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45638</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44911.41508101852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>44523.41258101852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45959.65987268519</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45477</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>44518.3752662037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45397.85427083333</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45960.50024305555</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45961.55121527778</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45358.39800925926</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45623</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45573.61053240741</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45611.42474537037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45203.50714120371</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45520.63628472222</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45737.43209490741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45966.32049768518</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>44655</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45161.30986111111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45966</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45966.30899305556</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>44986</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45184.50127314815</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45184.50607638889</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45968.34553240741</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45971</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>44543</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45971</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45971.49021990741</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>45971.56277777778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29153,7 +29153,7 @@
         <v>45971</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29210,7 +29210,7 @@
         <v>45743.62388888889</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29267,7 +29267,7 @@
         <v>44382</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>44865.45554398148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>45390.38291666667</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45769</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45975.44054398148</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>44298.45184027778</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>44915.6171875</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>44915.61827546296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45692</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45975.47203703703</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45975</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         <v>45975.46672453704</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45975.46677083334</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45104</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>45210.63138888889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45733.49400462963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>44420.57980324074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>44901</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>45733.62822916666</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44851.44445601852</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>45106.45290509259</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44777.52087962963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>45981</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>45981.36681712963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         <v>44320</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30697,7 +30697,7 @@
         <v>45090</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>45980.64929398148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>45980</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>45192</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45981.68347222222</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45981.70005787037</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45980.48855324074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45680.6977662037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45114.46510416667</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45021.35409722223</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45527.34743055556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45176.42482638889</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45140.55704861111</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45694.39572916667</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45980</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45435.68048611111</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44483</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45629.56130787037</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45603</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45559.35392361111</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>44899.65194444444</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>46035.37081018519</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         <v>45498.45238425926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32070,7 +32070,7 @@
         <v>44916.33868055556</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>45756</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>45756</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45992</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45614.50980324074</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>45281</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>45579</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>45636</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>45992</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32588,7 +32588,7 @@
         <v>45991.76033564815</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32645,7 +32645,7 @@
         <v>45029</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>46036.37692129629</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>45992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>45061.33076388889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>45111.62513888889</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>45204.29884259259</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>46036.37978009259</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44979</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>45994.40188657407</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45397.84950231481</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>45995.49027777778</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45994.39633101852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>45995.65300925926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45999</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>44977.42313657407</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>46041.39481481481</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>45250</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>45764.8356712963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>45407</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>45996</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44970.61927083333</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44740</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>46000</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45621</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45432</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>46042.71905092592</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45642.47990740741</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44442.34702546296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45188</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45583.49190972222</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45704</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>46041</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45659.43743055555</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45723.60413194444</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>46002.3396412037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45520</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>46003</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>46002</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>45510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>46043.92819444444</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>45036</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>46002</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>44839</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
         <v>45301.40287037037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>45412</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>45646</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>44799</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>46006.80295138889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44455.42010416667</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>46006.79896990741</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45764.86341435185</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>46007</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44625</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>45443.61469907407</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>45443.62809027778</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45475.3100462963</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>46050.3006712963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44470</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>46048</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45307</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>46050.29395833334</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>46050.29765046296</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>46009.65501157408</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>46007.91733796296</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44476.40172453703</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>45154.36349537037</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>46008.35336805556</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>45223.36175925926</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44858.51219907407</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44970</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>45603</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>45310.66641203704</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>46010</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>45281</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>45090</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>46013.46969907408</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>45090</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>45533.35328703704</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>45392.60068287037</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>46052.97109953704</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37339,7 +37339,7 @@
         <v>45775</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37396,7 +37396,7 @@
         <v>45310</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37453,7 +37453,7 @@
         <v>46013.44871527778</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37510,7 +37510,7 @@
         <v>46013.45496527778</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44746</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44951</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>46010.3569212963</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44798.44091435185</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45210.61785879629</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>44896</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>46059.47119212963</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45603</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>46016</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>46016</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>46016</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45415.49917824074</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>46016</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>46016</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>46059.47886574074</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>46016</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45737.40064814815</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45737.40975694444</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45308.43929398148</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45139</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45467.43847222222</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>46021</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45105.61513888889</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>46021</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38940,7 +38940,7 @@
         <v>45091</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         <v>45091</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39054,7 +39054,7 @@
         <v>46021</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39111,7 +39111,7 @@
         <v>46062.36707175926</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39168,7 +39168,7 @@
         <v>45751.54429398148</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45278</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>44894.35633101852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>45245.39134259259</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>46062.61805555555</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>45156.34178240741</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>46064.31443287037</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>46064.90613425926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>45166.37347222222</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>45173.42797453704</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>45749</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>46069.62130787037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>44557</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>46069.3290162037</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45085</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45579</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44575.42931712963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>46066.58855324074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>44908</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>45600</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>45092.52130787037</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>46029</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45541.49884259259</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45296</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45426</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>46050</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>46029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45197.32480324074</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45224</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45532.46422453703</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40888,7 +40888,7 @@
         <v>46029</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>46029</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44537.31429398148</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>46031.58696759259</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>45037.53892361111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>45719</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44901.45045138889</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41287,7 +41287,7 @@
         <v>45992</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41344,7 +41344,7 @@
         <v>46029.92722222222</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41401,7 +41401,7 @@
         <v>46031.32127314815</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41458,7 +41458,7 @@
         <v>45301.28457175926</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41515,7 +41515,7 @@
         <v>45617</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41572,7 +41572,7 @@
         <v>46031.41726851852</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>44537.35434027778</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>46031.40943287037</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>45723.5812037037</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>46031.5745949074</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>46029.94606481482</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         <v>45054</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>45549.29730324074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42028,7 +42028,7 @@
         <v>45084.36466435185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42085,7 +42085,7 @@
         <v>44375</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>44546.63256944445</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>44840.68204861111</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42256,7 +42256,7 @@
         <v>45685.35579861111</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42313,7 +42313,7 @@
         <v>45672</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42370,7 +42370,7 @@
         <v>44966</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         <v>45090.5115162037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42484,7 +42484,7 @@
         <v>45090.52355324074</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42541,7 +42541,7 @@
         <v>45090.52524305556</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>45553.39327546296</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42655,7 +42655,7 @@
         <v>45736.4399537037</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42712,7 +42712,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42769,7 +42769,7 @@
         <v>44804.37699074074</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42826,7 +42826,7 @@
         <v>45450</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42883,7 +42883,7 @@
         <v>45290.40490740741</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42940,7 +42940,7 @@
         <v>45290.4230787037</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42997,7 +42997,7 @@
         <v>45146.39759259259</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43054,7 +43054,7 @@
         <v>45769</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>45176.47168981482</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43173,7 +43173,7 @@
         <v>45539</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43230,7 +43230,7 @@
         <v>45754</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>45258.68179398148</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>45714</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>45654</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>45152</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43515,7 +43515,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43572,7 +43572,7 @@
         <v>44445</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43629,7 +43629,7 @@
         <v>45261.66388888889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>45775.46146990741</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>45098.60960648148</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>45442.31208333333</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43857,7 +43857,7 @@
         <v>45272.84534722222</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43914,7 +43914,7 @@
         <v>44683</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45084</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45526.34626157407</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45204.34394675926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>44427</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44199,7 +44199,7 @@
         <v>45279</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44256,7 +44256,7 @@
         <v>45525</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44313,7 +44313,7 @@
         <v>45224</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44375,7 +44375,7 @@
         <v>45653</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45267.8165162037</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45599</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45015.51855324074</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45370.40393518518</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>44966</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45092.49870370371</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44774,7 +44774,7 @@
         <v>44883</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44831,7 +44831,7 @@
         <v>45671.63766203704</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44888,7 +44888,7 @@
         <v>45608.30012731482</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44945,7 +44945,7 @@
         <v>45684.53989583333</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45002,7 +45002,7 @@
         <v>45281.63020833334</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45059,7 +45059,7 @@
         <v>45603</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45116,7 +45116,7 @@
         <v>45275</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45173,7 +45173,7 @@
         <v>45244</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45230,7 +45230,7 @@
         <v>45128</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45287,7 +45287,7 @@
         <v>45756</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45344,7 +45344,7 @@
         <v>45281</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45401,7 +45401,7 @@
         <v>44602.57221064815</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45458,7 +45458,7 @@
         <v>45161.34262731481</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45515,7 +45515,7 @@
         <v>45745.33353009259</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45572,7 +45572,7 @@
         <v>45204</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45629,7 +45629,7 @@
         <v>45245.36474537037</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45686,7 +45686,7 @@
         <v>45245.36806712963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45748,7 +45748,7 @@
         <v>45770</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45810,7 +45810,7 @@
         <v>45730.37660879629</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45867,7 +45867,7 @@
         <v>45149</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45929,7 +45929,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         <v>45089.42549768519</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46043,7 +46043,7 @@
         <v>45426.54575231481</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46100,7 +46100,7 @@
         <v>45310</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46157,7 +46157,7 @@
         <v>45310</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46214,7 +46214,7 @@
         <v>45090</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46271,7 +46271,7 @@
         <v>44700</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46333,7 +46333,7 @@
         <v>45432.4952662037</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46390,7 +46390,7 @@
         <v>45054.67517361111</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46447,7 +46447,7 @@
         <v>45336</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>45546</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46561,7 +46561,7 @@
         <v>45455</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46618,7 +46618,7 @@
         <v>45040</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         <v>45093.36811342592</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46732,7 +46732,7 @@
         <v>45764.83717592592</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46789,7 +46789,7 @@
         <v>45294.43738425926</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46846,7 +46846,7 @@
         <v>45253.55711805556</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46903,7 +46903,7 @@
         <v>45541.43833333333</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46960,7 +46960,7 @@
         <v>45092.46762731481</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47017,7 +47017,7 @@
         <v>45681.60923611111</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>45692</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>45674</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44966</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44998</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44896.31075231481</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>45306</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>45676</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>45221.77943287037</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47540,7 +47540,7 @@
         <v>45221.79</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47602,7 +47602,7 @@
         <v>45229</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47659,7 +47659,7 @@
         <v>44659</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47716,7 +47716,7 @@
         <v>45175.32085648148</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47773,7 +47773,7 @@
         <v>45736.45195601852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47830,7 +47830,7 @@
         <v>45616.31659722222</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47887,7 +47887,7 @@
         <v>44776</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47949,7 +47949,7 @@
         <v>44714.6340625</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48006,7 +48006,7 @@
         <v>44636</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48063,7 +48063,7 @@
         <v>44636</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48120,7 +48120,7 @@
         <v>45639.32872685185</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48177,7 +48177,7 @@
         <v>44911</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48234,7 +48234,7 @@
         <v>45015.42163194445</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48291,7 +48291,7 @@
         <v>45616</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>45680</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48405,7 +48405,7 @@
         <v>44665.50206018519</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48462,7 +48462,7 @@
         <v>45749</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>45775.79428240741</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>45777.58931712963</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>45775.76653935185</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>45778.8775</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>45778.88215277778</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>45783.55393518518</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44426</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>45567.68861111111</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>45730.428125</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>45790.69576388889</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>45790.66159722222</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>45629</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>45792.46037037037</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45576</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45796.50158564815</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45798.35246527778</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45803.72125</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45800.39847222222</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45800.40030092592</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45804.57912037037</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45805</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49731,7 +49731,7 @@
         <v>45804.66979166667</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49788,7 +49788,7 @@
         <v>45310</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49845,7 +49845,7 @@
         <v>45600</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49902,7 +49902,7 @@
         <v>45811</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49959,7 +49959,7 @@
         <v>45726.57450231481</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50016,7 +50016,7 @@
         <v>45624.50635416667</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50073,7 +50073,7 @@
         <v>45552</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50135,7 +50135,7 @@
         <v>45811.43113425926</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50192,7 +50192,7 @@
         <v>45811.43344907407</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50249,7 +50249,7 @@
         <v>45810.60024305555</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50311,7 +50311,7 @@
         <v>45378</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50368,7 +50368,7 @@
         <v>44966</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50430,7 +50430,7 @@
         <v>45502.4609375</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50487,7 +50487,7 @@
         <v>45580</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>45628.31179398148</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50601,7 +50601,7 @@
         <v>45813.59876157407</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50658,7 +50658,7 @@
         <v>45812.37256944444</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50720,7 +50720,7 @@
         <v>45583.35133101852</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50777,7 +50777,7 @@
         <v>45813.58407407408</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50834,7 +50834,7 @@
         <v>45742</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50891,7 +50891,7 @@
         <v>45812.40777777778</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>45590</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -575,7 +575,7 @@
         <v>44494</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45306</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45090.50625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44375</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44791.44280092593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44740</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44916</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44868.67020833334</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44865</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44888.6372337963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>45856.81059027778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45091.33247685185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>45754</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44881</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44970</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>45293</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>45426.55398148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45358.39175925926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>45575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44377.32239583333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>45257.42827546296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>45532.45796296297</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45310</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>45243</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45877</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45376.6368287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45315.33327546297</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>45992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45777.39913194445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44889.68322916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>44329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>44329.58090277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>44329.58292824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>44461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>44375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>44257</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44329.57322916666</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44683.36454861111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44445</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>44356.40797453704</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>44529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>44327.62684027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>44383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44258</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44419.58481481481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44712</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>44479.66202546296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>44479.66052083333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44797.66454861111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>44889.41892361111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44421</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44608</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44432</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44285.29895833333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44385.60634259259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44582.00265046296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44582.0059837963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44851.4033912037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44286</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44287.57018518518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44538</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44290.47280092593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44290.4797800926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>44816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44740.43847222222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44837.67725694444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44712.4425462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44290</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44874.5772337963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44357</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44586.74548611111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44722</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44288</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44685</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44350.40565972222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44809</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44357</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44442</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44452</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44491.35688657407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44288</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44858.54106481482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44281</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44494</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44659.58193287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44329.58519675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44740</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44426</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>44510.60755787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44326.62013888889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44733.34216435185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44853</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44557.58021990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44426.72920138889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44546</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44614</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44817</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44258</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44874.38748842593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44874.42180555555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44883</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44515</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>44356</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>44799.42243055555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44581.99863425926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44881</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44881</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>44868.41391203704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>44799</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>44705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>44377.31774305556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>44505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>44505</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>44451.46739583334</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>44798.44829861111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>44560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44573</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44477.40104166666</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44614.79133101852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44585.38177083333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>44403</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>44714.6290625</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>44369</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>44369</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>44438</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>44877.47369212963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>44491.3625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44852.62166666667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44469</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44523.41300925926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44662</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44584.61653935185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44643.43587962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44799</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44614</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44726.62425925926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44432.64358796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44818.80758101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45736.42248842592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>45307.4084375</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>45646</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44586.3008449074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45615.5812037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44979.49119212963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44881</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45267.89706018518</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>45162</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>45054</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>45054</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44899</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>45574.32737268518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>45040</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44588</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>45189</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45111.57283564815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44918</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44918</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45184</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>45694</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>45733.47869212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>45245</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>45510.41027777778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>45265.41182870371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>45338</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>44937.6058449074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45510.42471064815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45623</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45091.34543981482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45110.70349537037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>45090</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45733.57960648148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>45512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>45544.33984953703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>45609.30459490741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44911</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>45191.41320601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>45195.64239583333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44278</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>45482.30646990741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45390.45954861111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>45727.47819444445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>45727</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44470.30619212963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>45355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>45629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>45336</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>45110.68565972222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>45161.3203125</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44474.57980324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45629.59203703704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>44874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>45173.61924768519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>45173.62416666667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>45435</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>44956</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44445.37730324074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45434.38707175926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45749.41103009259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45733.4528587963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>44887</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>45586</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>45140</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>45775.46902777778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45721</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45271</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>45028.6211574074</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45623</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45722</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>45058.35065972222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>45245.38790509259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45474</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44904</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>45729</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45293.40135416666</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45460</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45588</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45443</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44641.36465277777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>45681.60017361111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45635.48516203704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45197</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>45694.38700231481</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>45029.64783564815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>45616.3125</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>45462.30476851852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44991.42932870371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44901.39585648148</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>45818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>45818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>45817.77731481481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>45246</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>45818</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>45819.49063657408</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>45818</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45694.50721064815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44980</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45429.53825231481</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>44426</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44693.58125</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>45583.43951388889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>45758.48150462963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44896</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>45231.86333333333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45824.64042824074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45757.30491898148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45889.33225694444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45456.61538194444</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45891.62112268519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45226.39951388889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44602.6980787037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>45891</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>45070</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>45261.32729166667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>45891.61701388889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45891.64363425926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>45891</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>45891.63018518518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>45178</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>45149</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>45558.56857638889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>45832.4737962963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>45897</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>45897</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>45897.59415509259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>45832.49134259259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>44790.64056712963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>45833.5234375</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45898</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45832.4809837963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>44943</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>45834</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>45835.51012731482</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>45730</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>45758.47685185185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>45903</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>45903</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>45903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>45834</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>45903.56298611111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>45839.58366898148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>45839.58796296296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>45061.32634259259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44942.59430555555</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>45016</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>45838.31085648148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45838.31572916666</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45839.60252314815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>44935.41436342592</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>45903</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>45839.48775462963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>45839.59508101852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>45671.64324074074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>45904</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>45730.33796296296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>45273.78820601852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>45841.43886574074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45909</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45680.4343287037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45840.40047453704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45142</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>45142.46916666667</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>45231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>45845.56644675926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>45845.41854166667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>45910.34619212963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>45915</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>45691</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>45274.66740740741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45817.77519675926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>45758.49068287037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45243</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45119.58086805556</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20865,7 +20865,7 @@
         <v>45715</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20922,7 +20922,7 @@
         <v>45253.45641203703</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         <v>45061.59405092592</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>45728</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>45729</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21150,7 +21150,7 @@
         <v>45588.55368055555</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>45736.38199074074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45848.7830787037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>45176.38581018519</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>45614.86993055556</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>45615.38655092593</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>45918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>45197</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44614.7774537037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>45778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>45910</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>45041</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>45856</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>45856.80644675926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>45195.64928240741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>45856.80967592593</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44966</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45920</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45614.50744212963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45631.59569444445</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45525.4109837963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45726</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45866</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45924.33851851852</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22637,7 +22637,7 @@
         <v>45924.34481481482</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22694,7 +22694,7 @@
         <v>45924</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>45135.64596064815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>45868.68255787037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45867.9059837963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45554.83660879629</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45929.58712962963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45929</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45173.6061574074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45140</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45929.44825231482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45873.58828703704</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45929.60173611111</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45873</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45874.55393518518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45874.48020833333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>45418.60708333334</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>45877</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45877</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>45300</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>44865.54180555556</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45636</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45932</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24015,7 +24015,7 @@
         <v>45936</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>45621</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>45888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>45936.58976851852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
         <v>45883</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24310,7 +24310,7 @@
         <v>45882</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24367,7 +24367,7 @@
         <v>45882</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24424,7 +24424,7 @@
         <v>45756</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>45748</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>45939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>45040.62565972222</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>45153.66541666666</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>45582</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>45580.37305555555</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>45370.41842592593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>45936.89217592592</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>45939</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
         <v>45938.406875</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>45939</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25113,7 +25113,7 @@
         <v>44412</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25170,7 +25170,7 @@
         <v>45751.40055555556</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
         <v>45477</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25284,7 +25284,7 @@
         <v>45749</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>45940.656875</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>45267.42901620371</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>45940.64693287037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>44872.53398148148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45134.64652777778</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45152.36185185185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>44596.37890046297</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25755,7 +25755,7 @@
         <v>45015.46771990741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>44327.59894675926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>45089.43049768519</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>44249</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45946</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>45946</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44342</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26159,7 +26159,7 @@
         <v>44998.42094907408</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>44573</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>45252</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26330,7 +26330,7 @@
         <v>44834.56980324074</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>45950.48918981481</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45243</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44998.41233796296</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45587.34261574074</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45191.47472222222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45532</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>44845.36622685185</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>45952</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>45371</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>44956.39633101852</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45957.47106481482</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45691.44375</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45440.63092592593</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45408.33878472223</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45755.43291666666</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45638</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44911.41508101852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>44523.41258101852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45959.65987268519</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45477</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>44518.3752662037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45397.85427083333</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45960.50024305555</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45961.55121527778</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45358.39800925926</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45623</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45573.61053240741</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45611.42474537037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45203.50714120371</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45520.63628472222</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45737.43209490741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45966.32049768518</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>44655</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45161.30986111111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45966</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45966.30899305556</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>44986</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45184.50127314815</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45184.50607638889</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45968.34553240741</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45971</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>44543</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45971</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45971.49021990741</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>45971.56277777778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29153,7 +29153,7 @@
         <v>45971</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29210,7 +29210,7 @@
         <v>45743.62388888889</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29267,7 +29267,7 @@
         <v>44382</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>44865.45554398148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>45390.38291666667</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45769</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45975.44054398148</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>44298.45184027778</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>44915.6171875</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>44915.61827546296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45692</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45975.47203703703</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45975</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         <v>45975.46672453704</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45975.46677083334</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45104</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>45210.63138888889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45733.49400462963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>44420.57980324074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>44901</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>45733.62822916666</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44851.44445601852</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>45106.45290509259</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44777.52087962963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>45981</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>45981.36681712963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         <v>44320</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30697,7 +30697,7 @@
         <v>45090</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>45980.64929398148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>45980</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>45192</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45981.68347222222</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45981.70005787037</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45980.48855324074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45680.6977662037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45114.46510416667</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45021.35409722223</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45527.34743055556</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45176.42482638889</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45140.55704861111</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45694.39572916667</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45980</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45435.68048611111</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44483</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45629.56130787037</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45603</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45559.35392361111</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>44899.65194444444</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>46035.37081018519</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         <v>45498.45238425926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32070,7 +32070,7 @@
         <v>44916.33868055556</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>45756</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>45756</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45992</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45614.50980324074</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>45281</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>45579</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>45636</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>45992</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32588,7 +32588,7 @@
         <v>45991.76033564815</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32645,7 +32645,7 @@
         <v>45029</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>46036.37692129629</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>45992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>45061.33076388889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>45111.62513888889</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>45204.29884259259</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>46036.37978009259</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44979</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>45994.40188657407</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45397.84950231481</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>45995.49027777778</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45994.39633101852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>45995.65300925926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45999</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>44977.42313657407</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>46041.39481481481</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>45250</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>45764.8356712963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>45407</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>44482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>45996</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44970.61927083333</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44740</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>46000</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45621</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45432</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>46042.71905092592</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45642.47990740741</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44442.34702546296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45188</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45583.49190972222</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45704</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>46041</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45659.43743055555</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45723.60413194444</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>46002.3396412037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45520</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>46003</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>46002</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>45510</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>46043.92819444444</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>45036</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>46002</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>44839</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
         <v>45301.40287037037</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>45412</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>45646</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>44799</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>46006.80295138889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44455.42010416667</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>46006.79896990741</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45764.86341435185</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>46007</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44625</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>45443.61469907407</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>45443.62809027778</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45475.3100462963</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>46050.3006712963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44470</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>46048</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45307</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>46050.29395833334</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>46050.29765046296</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>46009.65501157408</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>46007.91733796296</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44476.40172453703</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>45154.36349537037</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>46008.35336805556</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>45223.36175925926</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44858.51219907407</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44970</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>45603</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>45310.66641203704</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>46010</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>45281</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>45090</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>46013.46969907408</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>45090</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>45533.35328703704</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>45392.60068287037</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>46052.97109953704</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37339,7 +37339,7 @@
         <v>45775</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37396,7 +37396,7 @@
         <v>45310</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37453,7 +37453,7 @@
         <v>46013.44871527778</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37510,7 +37510,7 @@
         <v>46013.45496527778</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44746</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44951</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>46010.3569212963</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44798.44091435185</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45210.61785879629</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>44896</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>46059.47119212963</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45603</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>46016</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>46016</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>46016</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45415.49917824074</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>46016</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>46016</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>46059.47886574074</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>46016</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45737.40064814815</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45737.40975694444</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45308.43929398148</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45139</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45467.43847222222</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>46021</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45105.61513888889</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>46021</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38940,7 +38940,7 @@
         <v>45091</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         <v>45091</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39054,7 +39054,7 @@
         <v>46021</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39111,7 +39111,7 @@
         <v>46062.36707175926</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39168,7 +39168,7 @@
         <v>45751.54429398148</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45278</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>44894.35633101852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>45245.39134259259</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>46062.61805555555</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>45156.34178240741</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>46064.31443287037</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>46064.90613425926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>45166.37347222222</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>45173.42797453704</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>45749</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>46069.62130787037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>44557</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>46069.3290162037</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45085</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45579</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44575.42931712963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>46066.58855324074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>44908</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>45600</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>45092.52130787037</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>46029</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45541.49884259259</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45296</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45426</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>46050</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>46029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45197.32480324074</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45224</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45532.46422453703</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40888,7 +40888,7 @@
         <v>46029</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>46029</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>44537.31429398148</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>46031.58696759259</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>45037.53892361111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>45719</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>44901.45045138889</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41287,7 +41287,7 @@
         <v>45992</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41344,7 +41344,7 @@
         <v>46029.92722222222</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41401,7 +41401,7 @@
         <v>46031.32127314815</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41458,7 +41458,7 @@
         <v>45301.28457175926</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41515,7 +41515,7 @@
         <v>45617</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41572,7 +41572,7 @@
         <v>46031.41726851852</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>44537.35434027778</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>46031.40943287037</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>45723.5812037037</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>46031.5745949074</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>46029.94606481482</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         <v>45054</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>45549.29730324074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42028,7 +42028,7 @@
         <v>45084.36466435185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42085,7 +42085,7 @@
         <v>44375</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>44546.63256944445</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>44840.68204861111</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42256,7 +42256,7 @@
         <v>45685.35579861111</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42313,7 +42313,7 @@
         <v>45672</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42370,7 +42370,7 @@
         <v>44966</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         <v>45090.5115162037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42484,7 +42484,7 @@
         <v>45090.52355324074</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42541,7 +42541,7 @@
         <v>45090.52524305556</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>45553.39327546296</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42655,7 +42655,7 @@
         <v>45736.4399537037</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42712,7 +42712,7 @@
         <v>45106</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42769,7 +42769,7 @@
         <v>44804.37699074074</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42826,7 +42826,7 @@
         <v>45450</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42883,7 +42883,7 @@
         <v>45290.40490740741</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42940,7 +42940,7 @@
         <v>45290.4230787037</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42997,7 +42997,7 @@
         <v>45146.39759259259</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43054,7 +43054,7 @@
         <v>45769</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>45176.47168981482</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43173,7 +43173,7 @@
         <v>45539</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43230,7 +43230,7 @@
         <v>45754</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>45258.68179398148</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>45714</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>45654</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>45152</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43515,7 +43515,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43572,7 +43572,7 @@
         <v>44445</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43629,7 +43629,7 @@
         <v>45261.66388888889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>45775.46146990741</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43743,7 +43743,7 @@
         <v>45098.60960648148</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>45442.31208333333</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43857,7 +43857,7 @@
         <v>45272.84534722222</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43914,7 +43914,7 @@
         <v>44683</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45084</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45526.34626157407</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45204.34394675926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>44427</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44199,7 +44199,7 @@
         <v>45279</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44256,7 +44256,7 @@
         <v>45525</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44313,7 +44313,7 @@
         <v>45224</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44375,7 +44375,7 @@
         <v>45653</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>45267.8165162037</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45599</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45015.51855324074</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45370.40393518518</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>44966</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45092.49870370371</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44774,7 +44774,7 @@
         <v>44883</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44831,7 +44831,7 @@
         <v>45671.63766203704</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44888,7 +44888,7 @@
         <v>45608.30012731482</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44945,7 +44945,7 @@
         <v>45684.53989583333</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45002,7 +45002,7 @@
         <v>45281.63020833334</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45059,7 +45059,7 @@
         <v>45603</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45116,7 +45116,7 @@
         <v>45275</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45173,7 +45173,7 @@
         <v>45244</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45230,7 +45230,7 @@
         <v>45128</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45287,7 +45287,7 @@
         <v>45756</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45344,7 +45344,7 @@
         <v>45281</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45401,7 +45401,7 @@
         <v>44602.57221064815</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45458,7 +45458,7 @@
         <v>45161.34262731481</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45515,7 +45515,7 @@
         <v>45745.33353009259</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45572,7 +45572,7 @@
         <v>45204</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45629,7 +45629,7 @@
         <v>45245.36474537037</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45686,7 +45686,7 @@
         <v>45245.36806712963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45748,7 +45748,7 @@
         <v>45770</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45810,7 +45810,7 @@
         <v>45730.37660879629</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45867,7 +45867,7 @@
         <v>45149</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45929,7 +45929,7 @@
         <v>45159</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         <v>45089.42549768519</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46043,7 +46043,7 @@
         <v>45426.54575231481</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46100,7 +46100,7 @@
         <v>45310</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46157,7 +46157,7 @@
         <v>45310</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46214,7 +46214,7 @@
         <v>45090</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46271,7 +46271,7 @@
         <v>44700</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46333,7 +46333,7 @@
         <v>45432.4952662037</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46390,7 +46390,7 @@
         <v>45054.67517361111</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46447,7 +46447,7 @@
         <v>45336</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>45546</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46561,7 +46561,7 @@
         <v>45455</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46618,7 +46618,7 @@
         <v>45040</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         <v>45093.36811342592</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46732,7 +46732,7 @@
         <v>45764.83717592592</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46789,7 +46789,7 @@
         <v>45294.43738425926</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46846,7 +46846,7 @@
         <v>45253.55711805556</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46903,7 +46903,7 @@
         <v>45541.43833333333</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46960,7 +46960,7 @@
         <v>45092.46762731481</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47017,7 +47017,7 @@
         <v>45681.60923611111</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>45692</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>45674</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>44966</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         <v>44998</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47307,7 +47307,7 @@
         <v>44896.31075231481</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>45306</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>45676</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>45221.77943287037</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47540,7 +47540,7 @@
         <v>45221.79</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47602,7 +47602,7 @@
         <v>45229</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47659,7 +47659,7 @@
         <v>44659</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47716,7 +47716,7 @@
         <v>45175.32085648148</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47773,7 +47773,7 @@
         <v>45736.45195601852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47830,7 +47830,7 @@
         <v>45616.31659722222</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47887,7 +47887,7 @@
         <v>44776</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47949,7 +47949,7 @@
         <v>44714.6340625</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48006,7 +48006,7 @@
         <v>44636</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48063,7 +48063,7 @@
         <v>44636</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48120,7 +48120,7 @@
         <v>45639.32872685185</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48177,7 +48177,7 @@
         <v>44911</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48234,7 +48234,7 @@
         <v>45015.42163194445</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48291,7 +48291,7 @@
         <v>45616</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>45680</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48405,7 +48405,7 @@
         <v>44665.50206018519</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48462,7 +48462,7 @@
         <v>45749</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>45775.79428240741</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>45777.58931712963</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>45775.76653935185</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>45778.8775</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>45778.88215277778</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>45783.55393518518</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44426</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>45567.68861111111</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>45730.428125</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>45790.69576388889</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>45790.66159722222</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>45629</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>45792.46037037037</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>45576</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>45796.50158564815</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45798.35246527778</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45803.72125</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45800.39847222222</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>45800.40030092592</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>45804.57912037037</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45805</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49731,7 +49731,7 @@
         <v>45804.66979166667</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49788,7 +49788,7 @@
         <v>45310</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49845,7 +49845,7 @@
         <v>45600</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49902,7 +49902,7 @@
         <v>45811</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49959,7 +49959,7 @@
         <v>45726.57450231481</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50016,7 +50016,7 @@
         <v>45624.50635416667</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50073,7 +50073,7 @@
         <v>45552</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50135,7 +50135,7 @@
         <v>45811.43113425926</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50192,7 +50192,7 @@
         <v>45811.43344907407</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50249,7 +50249,7 @@
         <v>45810.60024305555</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50311,7 +50311,7 @@
         <v>45378</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50368,7 +50368,7 @@
         <v>44966</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50430,7 +50430,7 @@
         <v>45502.4609375</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50487,7 +50487,7 @@
         <v>45580</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>45628.31179398148</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50601,7 +50601,7 @@
         <v>45813.59876157407</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50658,7 +50658,7 @@
         <v>45812.37256944444</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50720,7 +50720,7 @@
         <v>45583.35133101852</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50777,7 +50777,7 @@
         <v>45813.58407407408</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50834,7 +50834,7 @@
         <v>45742</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50891,7 +50891,7 @@
         <v>45812.40777777778</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>45590</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -575,7 +575,7 @@
         <v>44494</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45306</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>45090.50625</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44375</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44791.44280092593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44740</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44916</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44868.67020833334</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44865</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44888.6372337963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>45358.39175925926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44970</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>45856.81059027778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>45091.33247685185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>45754</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44881</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45426.55398148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45293</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>45575</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44377.32239583333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>45243</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>45376.6368287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>45257.42827546296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>45877</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>45310</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45315.33327546297</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>45532.45796296297</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45777.39913194445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>44889.68322916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>44329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>44329.58090277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>44329.58292824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>44375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>44461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>44257</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44683.36454861111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44810</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44445</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44329.57322916666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>44529</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>44356.40797453704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>44327.62684027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>44383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44258</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44419.58481481481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44712</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>44479.66202546296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44479.66052083333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>44852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44889.41892361111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>44797.66454861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44421</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44608</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44432</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44285.29895833333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44582.00265046296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44385.60634259259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44582.0059837963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44851.4033912037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44286</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44287.57018518518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44290.47280092593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44290.4797800926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44816</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>44740.43847222222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44837.67725694444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44712.4425462963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44538</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44290</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44874.5772337963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44357</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44377</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44586.74548611111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44685</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44288</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44350.40565972222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44809</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44357</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44722</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44442</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44858.54106481482</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44491.35688657407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44288</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44281</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44670</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44494</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44659.58193287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44329.58519675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44740</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44426</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>44510.60755787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44326.62013888889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44733.34216435185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44853</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44426.72920138889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44546</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>44557.58021990741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44817</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44258</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44874.38748842593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44874.42180555555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44883</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44515</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>44356</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>44799.42243055555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>44881</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44881</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44588</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44581.99863425926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>44868.41391203704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>44799</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>44705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>44377.31774305556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>44451.46739583334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>44505</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>44505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>44798.44829861111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>44560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>44573</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44477.40104166666</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44614.79133101852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44585.38177083333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>44403</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>44714.6290625</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>44369</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>44369</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>44438</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>44877.47369212963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>44491.3625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44852.62166666667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>44469</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44523.41300925926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44662</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44584.61653935185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44643.43587962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44799</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44614</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44726.62425925926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44432.64358796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44818.80758101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45775.46146990741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44298.45184027778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44412</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>45041</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44834.56980324074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45733.57960648148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>45195.64239583333</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44865.54180555556</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>45719</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44908</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45310.66641203704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45763</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44445.37730324074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45092.49870370371</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45092.52130787037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45229</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45745.33353009259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>45243</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>45456.61538194444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>45554.83660879629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45549.29730324074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>45301.40287037037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44901.39585648148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44799</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44956.39633101852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44894.35633101852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45390.45954861111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45426.54575231481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44865.45554398148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>45397.84950231481</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44956</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>45477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>45140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>45294.43738425926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>45110.68565972222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>45278</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>45246</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>45450</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44602.6980787037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45544.33984953703</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45491</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45176.38581018519</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>45532</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44943</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44625</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>45310</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44845.36622685185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44911</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44911</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>45135.64596064815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>45804.57912037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45756</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45883</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>45804.66979166667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45582</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45355</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>45358.39800925926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45559.35392361111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45805</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45502.4609375</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45624.50635416667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44966</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45600</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>45749.41103009259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>45435.68048611111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>45691.44375</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45378</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45583.43951388889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>45603</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45310</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45552</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45810.60024305555</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45726.57450231481</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>45580</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>45628.31179398148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>45811</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>45028.6211574074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>45812.37256944444</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>45811.43344907407</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44896</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>45811.43113425926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>45812.40777777778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45758.47685185185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45742</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45583.35133101852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>45813.58407407408</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>45370.41842592593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>45813.59876157407</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45889.33225694444</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44942.59430555555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>45029.64783564815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>45817.77731481481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>45653</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>45140</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44382</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>45818</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>45818</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>45590</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>45818</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>45818</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>45819.49063657408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>45891.62112268519</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>45754</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>45721</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>45891</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45891.64363425926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45758.48150462963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45891.61701388889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45891.63018518518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45541.49884259259</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44641.36465277777</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45891</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45152</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45152</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>45058.35065972222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>45824.64042824074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44915.6171875</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44915.61827546296</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>45178</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45210.61785879629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>45722</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45897</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45897</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>45897.59415509259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>45897</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>45898</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>45583.49190972222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44659</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>45623</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>45901</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44986</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>45832.4737962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>45904</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>45903.56298611111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45903</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45903</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>45903</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>45832.4809837963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>45832.49134259259</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>45903</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>44614.7774537037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>45833.5234375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>45834</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>45834</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44455.42010416667</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>45580.37305555555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>45764.8356712963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>44746</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>45835.51012731482</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>45838.31085648148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>45462.30476851852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>45838.31572916666</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>45098.60960648148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45021.35409722223</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>45839.59508101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>45839.60252314815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45084</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44700</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>45839.58366898148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45839.58796296296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45839.48775462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>45840.40047453704</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45600</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45579</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>45573.61053240741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>45434.38707175926</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>45037.53892361111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>45841.43886574074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>45603</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45910.34619212963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>45909</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>45603</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>45609.30459490741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>45845.41854166667</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>45845.56644675926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>45671.64324074074</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>45817.77519675926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>45253.45641203703</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>45671.63766203704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45758.49068287037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>45588.55368055555</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45736.38199074074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>45061.59405092592</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>45275</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>45715</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44482</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>45638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45915</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>45166.37347222222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>45615.38655092593</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>45848.7830787037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>44714.6340625</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>44474.57980324074</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>45617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>45435</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44998</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>45778</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>45856</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44523.41258101852</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>45614.50980324074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>45636</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>45635.48516203704</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>45093.36811342592</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44320</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44342</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>45856.80967592593</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>45428</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>45856.80644675926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>45614.50744212963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>45918</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>45866</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>45267.8165162037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>45910</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>45646</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>45631.59569444445</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>45920</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>45629.59203703704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>45924.34481481482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>45924</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45868.68255787037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45694.38700231481</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>45924.33851851852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>45614.86993055556</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>45867.9059837963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>45874.55393518518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44665.50206018519</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45873.58828703704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45736.45195601852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>45929.60173611111</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44979</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>45929.58712962963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>45659.43743055555</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>45874.48020833333</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45929.44825231482</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45929</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>45873</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>45733.47869212963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>45184</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>45874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24310,7 +24310,7 @@
         <v>45188</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24367,7 +24367,7 @@
         <v>45932</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24424,7 +24424,7 @@
         <v>45040</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>45197</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>45877</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44839</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>45877</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24709,7 +24709,7 @@
         <v>45224</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>45748</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>45882</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45882</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>45680</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45691</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>45224</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>45936.58976851852</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>45888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>45936</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25299,7 +25299,7 @@
         <v>45191.41320601852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>45728</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>45737.43209490741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>45197</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>45936.89217592592</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45245.36474537037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45245.36806712963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>45173.42797453704</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45938.406875</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>44790.64056712963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>45940.656875</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44858.51219907407</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45533.35328703704</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45588</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45250</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45939</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>45939</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45940.64693287037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45714</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45939</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45737.40064814815</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45737.40975694444</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>44966</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45736.42248842592</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45775.46902777778</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45054</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45764.86341435185</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45036</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45599</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45070</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>44883</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45090</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45946</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45946</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45245.39134259259</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45153.66541666666</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45950.48918981481</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>45090</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>45751.40055555556</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>45040</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>45749</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>45089.42549768519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>45054</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>45054</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>45952</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45770</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         <v>44420.57980324074</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28132,7 +28132,7 @@
         <v>45751.54429398148</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28189,7 +28189,7 @@
         <v>45539</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45558.56857638889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44966</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45957.47106481482</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44966</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44901.45045138889</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45336</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45960.50024305555</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45959.65987268519</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>44951</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45191.47472222222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>44537.31429398148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45106.45290509259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45015.42163194445</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45015.46771990741</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44543</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45961.55121527778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45966.32049768518</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45142.46916666667</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         <v>45966</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29329,7 +29329,7 @@
         <v>45119.58086805556</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
         <v>45966.30899305556</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45146.39759259259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45140</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45281</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45526.34626157407</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45467.43847222222</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45532.46422453703</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45149</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>45968.34553240741</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45971</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45971.49021990741</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45971</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44980</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45971.56277777778</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>45971</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45029</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45477</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45510.41027777778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>44991.42932870371</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45608.30012731482</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>44546.63256944445</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45975</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45306</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45084.36466435185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45525.4109837963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45475.3100462963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45111.57283564815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45975.47203703703</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45975.44054398148</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45429.53825231481</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45975.46672453704</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45975.46677083334</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45654</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45980</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45443.61469907407</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45443.62809027778</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45156.34178240741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45980.48855324074</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44655</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44970.61927083333</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45749</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>45980.64929398148</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>45981</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>45981.36681712963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>45426</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>45616</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>45981.68347222222</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>45981.70005787037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44911.41508101852</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45173.6061574074</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45541.43833333333</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44586.3008449074</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45106</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45142</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>45307.4084375</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>45336</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45271</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45730</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>45204.34394675926</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>45603</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45061.33076388889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>45992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>45980</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33007,7 +33007,7 @@
         <v>45614</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>45992</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>45991.76033564815</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>45512</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33235,7 +33235,7 @@
         <v>45204.29884259259</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>45054.67517361111</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>45994.39633101852</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45629</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>44581</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>45992</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>45994.40188657407</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45995.49027777778</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45995.65300925926</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
         <v>45623</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
         <v>45611.42474537037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>46041</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33919,7 +33919,7 @@
         <v>44804.37699074074</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>44636</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>46000</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45996</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>44629</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         <v>45999</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34261,7 +34261,7 @@
         <v>45091.34543981482</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34318,7 +34318,7 @@
         <v>46042.71905092592</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>45091</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>45091</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34489,7 +34489,7 @@
         <v>46041.39481481481</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         <v>45110.70349537037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>45714</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>46043.92819444444</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>44998</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34774,7 +34774,7 @@
         <v>45092.46762731481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34831,7 +34831,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>46002.3396412037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>46002</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44557</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>45176.42482638889</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>46002</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>45231.86333333333</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>46003</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>45195.64928240741</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>45111.62513888889</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>45639.32872685185</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44874</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>45244</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45197.32480324074</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>45694.39572916667</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>45775</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>45616.3125</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>45223.36175925926</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>46006.80295138889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>45757.30491898148</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>45245</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36033,7 +36033,7 @@
         <v>46008.35336805556</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>45085</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36147,7 +36147,7 @@
         <v>46006.79896990741</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36204,7 +36204,7 @@
         <v>46048</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         <v>46050.29395833334</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36318,7 +36318,7 @@
         <v>46050.29765046296</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36375,7 +36375,7 @@
         <v>46050.3006712963</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36432,7 +36432,7 @@
         <v>45442.31208333333</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36489,7 +36489,7 @@
         <v>45646</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         <v>46007.91733796296</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36603,7 +36603,7 @@
         <v>46007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>46009.65501157408</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>45253.55711805556</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>46010.3569212963</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36831,7 +36831,7 @@
         <v>45685.35579861111</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36888,7 +36888,7 @@
         <v>45258.68179398148</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>45681.60923611111</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>46010</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>45173.61924768519</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>45173.62416666667</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37178,7 +37178,7 @@
         <v>46013.44871527778</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>46013.45496527778</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37292,7 +37292,7 @@
         <v>45159</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37349,7 +37349,7 @@
         <v>46052.97109953704</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44740</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>46013.46969907408</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>45175.32085648148</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>46016</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>46016</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>45474</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>46016</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>46016</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>46016</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>46016</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>45300</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38038,7 +38038,7 @@
         <v>45267.89706018518</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38095,7 +38095,7 @@
         <v>45723.5812037037</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38152,7 +38152,7 @@
         <v>46059.47119212963</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38209,7 +38209,7 @@
         <v>46059.47886574074</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38266,7 +38266,7 @@
         <v>45726</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>46062.61805555555</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45279</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44427</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>45769</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>46062.36707175926</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45769</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>46021</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45267.42901620371</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>46064.31443287037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45440.63092592593</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>46021</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45723.60413194444</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45261.32729166667</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>46021</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39136,7 +39136,7 @@
         <v>45265.41182870371</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39193,7 +39193,7 @@
         <v>44442.34702546296</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39250,7 +39250,7 @@
         <v>45015.51855324074</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>44840.68204861111</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39364,7 +39364,7 @@
         <v>44872.53398148148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39421,7 +39421,7 @@
         <v>46066.58855324074</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39478,7 +39478,7 @@
         <v>45272.84534722222</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39535,7 +39535,7 @@
         <v>45301.28457175926</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39592,7 +39592,7 @@
         <v>46064.90613425926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39649,7 +39649,7 @@
         <v>45089.43049768519</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39706,7 +39706,7 @@
         <v>45310</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         <v>45755.43291666666</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39820,7 +39820,7 @@
         <v>45274.66740740741</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39877,7 +39877,7 @@
         <v>45293.40135416666</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39934,7 +39934,7 @@
         <v>45743.62388888889</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>46069.62130787037</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40048,7 +40048,7 @@
         <v>46069.3290162037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>46029</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>46029</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>46029</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>46029.94606481482</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>45733.62822916666</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>46029.92722222222</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>46050</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>45090</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40561,7 +40561,7 @@
         <v>45460</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>46029</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44798.44091435185</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>45992</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>46031.5745949074</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40851,7 +40851,7 @@
         <v>44693.58125</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40908,7 +40908,7 @@
         <v>45520.63628472222</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40965,7 +40965,7 @@
         <v>44896</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41022,7 +41022,7 @@
         <v>45290.40490740741</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41079,7 +41079,7 @@
         <v>45290.4230787037</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>45733.49400462963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41193,7 +41193,7 @@
         <v>44904</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41250,7 +41250,7 @@
         <v>46031.40943287037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41307,7 +41307,7 @@
         <v>46031.41726851852</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41364,7 +41364,7 @@
         <v>46031.32127314815</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41421,7 +41421,7 @@
         <v>45546</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41478,7 +41478,7 @@
         <v>46031.58696759259</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41535,7 +41535,7 @@
         <v>45296</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41592,7 +41592,7 @@
         <v>44575.42931712963</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41649,7 +41649,7 @@
         <v>44899</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41706,7 +41706,7 @@
         <v>45680.6977662037</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41763,7 +41763,7 @@
         <v>44327.59894675926</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44470</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44573</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>46036.37978009259</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>45736.4399537037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>45338</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44998.41233796296</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>46036.37692129629</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44887</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44476.40172453703</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45525</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>46035.37081018519</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45261.66388888889</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45553.39327546296</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44426</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45161.30986111111</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44896.31075231481</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45192</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44683</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44851.44445601852</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45412</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45090</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45371</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45016</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>44777.52087962963</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>45204</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>45231</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         <v>45281</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>45498.45238425926</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>45510</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>45510.42471064815</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44917</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43607,7 +43607,7 @@
         <v>44918</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43664,7 +43664,7 @@
         <v>45128</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43721,7 +43721,7 @@
         <v>44596.37890046297</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43778,7 +43778,7 @@
         <v>45674</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43835,7 +43835,7 @@
         <v>44278</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>44602.57221064815</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43949,7 +43949,7 @@
         <v>44979.49119212963</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44006,7 +44006,7 @@
         <v>45040.62565972222</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>45243</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44120,7 +44120,7 @@
         <v>45694.50721064815</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44177,7 +44177,7 @@
         <v>44518.3752662037</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44234,7 +44234,7 @@
         <v>45176.47168981482</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44291,7 +44291,7 @@
         <v>45021</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44348,7 +44348,7 @@
         <v>45071</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>45704</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>44470.30619212963</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44519,7 +44519,7 @@
         <v>45370.40393518518</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44576,7 +44576,7 @@
         <v>45090.5115162037</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45090.52355324074</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45090.52524305556</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45134.64652777778</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45281</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45281.63020833334</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44918,7 +44918,7 @@
         <v>45418.60708333334</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44975,7 +44975,7 @@
         <v>44916.33868055556</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45032,7 +45032,7 @@
         <v>44977.42313657407</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45089,7 +45089,7 @@
         <v>45621</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45146,7 +45146,7 @@
         <v>44937.6058449074</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45203,7 +45203,7 @@
         <v>45432.4952662037</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45260,7 +45260,7 @@
         <v>45061.32634259259</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45317,7 +45317,7 @@
         <v>45154.36349537037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>45162</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>45642.47990740741</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45488,7 +45488,7 @@
         <v>45139</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45545,7 +45545,7 @@
         <v>45587.34261574074</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45140.55704861111</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>44966</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45716,7 +45716,7 @@
         <v>45756</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45773,7 +45773,7 @@
         <v>45114.46510416667</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45830,7 +45830,7 @@
         <v>45090</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45887,7 +45887,7 @@
         <v>45161.3203125</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45944,7 +45944,7 @@
         <v>44375</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46001,7 +46001,7 @@
         <v>45520</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46058,7 +46058,7 @@
         <v>44636</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46115,7 +46115,7 @@
         <v>45203.50714120371</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46172,7 +46172,7 @@
         <v>44899.65194444444</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46229,7 +46229,7 @@
         <v>45629.56130787037</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46286,7 +46286,7 @@
         <v>45308.43929398148</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46343,7 +46343,7 @@
         <v>45105.61513888889</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46400,7 +46400,7 @@
         <v>45727.47819444445</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46457,7 +46457,7 @@
         <v>45727</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46514,7 +46514,7 @@
         <v>44776</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45310</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>44998.42094907408</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45692</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45733.4528587963</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46809,7 +46809,7 @@
         <v>45161.34262731481</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         <v>45210.63138888889</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46923,7 +46923,7 @@
         <v>45307</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46980,7 +46980,7 @@
         <v>45730.33796296296</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47037,7 +47037,7 @@
         <v>45390.38291666667</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47094,7 +47094,7 @@
         <v>45397.85427083333</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47151,7 +47151,7 @@
         <v>45730.37660879629</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45184.50127314815</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47265,7 +47265,7 @@
         <v>45184.50607638889</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47322,7 +47322,7 @@
         <v>45273.78820601852</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47379,7 +47379,7 @@
         <v>45616.31659722222</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47436,7 +47436,7 @@
         <v>45392.60068287037</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>45455</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47550,7 +47550,7 @@
         <v>44935.41436342592</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47607,7 +47607,7 @@
         <v>45636</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44867</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>45586</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47783,7 +47783,7 @@
         <v>45149</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47845,7 +47845,7 @@
         <v>45579</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47902,7 +47902,7 @@
         <v>45443</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47959,7 +47959,7 @@
         <v>45680.4343287037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48016,7 +48016,7 @@
         <v>45407</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48073,7 +48073,7 @@
         <v>45729</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48130,7 +48130,7 @@
         <v>45482.30646990741</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         <v>45756</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48244,7 +48244,7 @@
         <v>45756</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48301,7 +48301,7 @@
         <v>45676</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48358,7 +48358,7 @@
         <v>45152.36185185185</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48415,7 +48415,7 @@
         <v>45432</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48472,7 +48472,7 @@
         <v>44918</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48529,7 +48529,7 @@
         <v>45615.5812037037</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48586,7 +48586,7 @@
         <v>45621</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48643,7 +48643,7 @@
         <v>45221.77943287037</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48705,7 +48705,7 @@
         <v>45221.79</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48767,7 +48767,7 @@
         <v>45527.34743055556</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48824,7 +48824,7 @@
         <v>45749</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48886,7 +48886,7 @@
         <v>45226.39951388889</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48943,7 +48943,7 @@
         <v>45694</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49000,7 +49000,7 @@
         <v>45245.38790509259</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49062,7 +49062,7 @@
         <v>45729</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49119,7 +49119,7 @@
         <v>45672</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49176,7 +49176,7 @@
         <v>45252</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49233,7 +49233,7 @@
         <v>45684.53989583333</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49290,7 +49290,7 @@
         <v>45525</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49347,7 +49347,7 @@
         <v>45574.32737268518</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49404,7 +49404,7 @@
         <v>45681.60017361111</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49466,7 +49466,7 @@
         <v>45764.83717592592</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49523,7 +49523,7 @@
         <v>45623</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49580,7 +49580,7 @@
         <v>45692</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49637,7 +49637,7 @@
         <v>45408.33878472223</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49694,7 +49694,7 @@
         <v>45415.49917824074</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49751,7 +49751,7 @@
         <v>45189</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49808,7 +49808,7 @@
         <v>44537.35434027778</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49865,7 +49865,7 @@
         <v>45775.76653935185</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49922,7 +49922,7 @@
         <v>45775.79428240741</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>45777.58931712963</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50036,7 +50036,7 @@
         <v>45778.8775</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50093,7 +50093,7 @@
         <v>45778.88215277778</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50150,7 +50150,7 @@
         <v>45783.55393518518</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50207,7 +50207,7 @@
         <v>45567.68861111111</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50264,7 +50264,7 @@
         <v>45730.428125</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50321,7 +50321,7 @@
         <v>44426</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50378,7 +50378,7 @@
         <v>45790.66159722222</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>45790.69576388889</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>45629</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>45792.46037037037</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>45576</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>45796.50158564815</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50725,7 +50725,7 @@
         <v>45798.35246527778</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50782,7 +50782,7 @@
         <v>45800.39847222222</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>45800.40030092592</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>45803.72125</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
